--- a/Connexxion data - 2024-2025.xlsx
+++ b/Connexxion data - 2024-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BramH\Documents\Python jaar 4\Project 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B61B91-16A3-4C9D-B55E-FD5BAE79D3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2CEBCD-6096-48CD-88C0-8EFB64CB1778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dienstregeling!$A$1:$D$306</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="295">
   <si>
     <t>min reistijd in min</t>
   </si>
@@ -908,9 +919,6 @@
   </si>
   <si>
     <t>19:22</t>
-  </si>
-  <si>
-    <t>19:37</t>
   </si>
   <si>
     <t>19:45</t>
@@ -1254,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="C329" sqref="C329"/>
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A328" sqref="A328:D328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5845,28 +5853,17 @@
       </c>
     </row>
     <row r="328" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>4</v>
-      </c>
-      <c r="B328" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C328" t="s">
-        <v>3</v>
-      </c>
-      <c r="D328">
-        <v>400</v>
-      </c>
+      <c r="B328" s="3"/>
     </row>
     <row r="329" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>4</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C329" t="s">
         <v>294</v>
-      </c>
-      <c r="C329" t="s">
-        <v>295</v>
       </c>
       <c r="D329">
         <v>395</v>
@@ -6104,9 +6101,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6325,27 +6325,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30D6FDD2-FF62-4B13-9A34-5A609285E718}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E93F530E-264F-4AD7-B88E-4B975E2E9C18}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c4c90c3b-e0bd-4787-87d0-fc55f607185c"/>
-    <ds:schemaRef ds:uri="dbd7ad12-3323-416c-89da-709eb039707f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6370,9 +6358,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E93F530E-264F-4AD7-B88E-4B975E2E9C18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30D6FDD2-FF62-4B13-9A34-5A609285E718}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c4c90c3b-e0bd-4787-87d0-fc55f607185c"/>
+    <ds:schemaRef ds:uri="dbd7ad12-3323-416c-89da-709eb039707f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>